--- a/inst/models/example_psm/model.xlsx
+++ b/inst/models/example_psm/model.xlsx
@@ -1,362 +1,375 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrdnmdhl/Code/heRomod2/inst/models/example_psm/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B898632D-E36C-EC4E-9760-E9FA986EEA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="26820" windowHeight="14000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="settings" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="strategies" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="groups" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="states" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="transitions" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="variables" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="values" sheetId="9" state="visible" r:id="rId7"/>
-    <sheet name="summaries" sheetId="10" state="visible" r:id="rId8"/>
+    <sheet name="settings" sheetId="1" r:id="rId1"/>
+    <sheet name="strategies" sheetId="2" r:id="rId2"/>
+    <sheet name="groups" sheetId="3" r:id="rId3"/>
+    <sheet name="states" sheetId="4" r:id="rId4"/>
+    <sheet name="transitions" sheetId="5" r:id="rId5"/>
+    <sheet name="variables" sheetId="6" r:id="rId6"/>
+    <sheet name="values" sheetId="9" r:id="rId7"/>
+    <sheet name="summaries" sheetId="10" r:id="rId8"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
-  <si>
-    <t xml:space="preserve">setting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">model_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cycle_length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cycle_length_unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timeframe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timeframe_unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">days_per_year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">365.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">standard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standard of Care</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current standard treatment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_drug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Drug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Novel therapeutic agent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All Patients</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full patient population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">initial_probability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">state_group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max_state_time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">share_state_time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">state_cycle_limit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">state_cycle_limit_unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">progression_free</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Progression Free</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No disease progression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cycles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">progressed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Progressed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disease has progressed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">endpoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time_unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PFS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pfs_dist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os_dist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strategy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PFS Distribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Progression-free survival</t>
-  </si>
-  <si>
-    <t xml:space="preserve">define_surv_param("weibull", shape = 1.2, scale = 8)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OS Distribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overall survival</t>
-  </si>
-  <si>
-    <t xml:space="preserve">define_surv_param("weibull", shape = 1.1, scale = 14)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apply_hr(define_surv_param("weibull", shape = 1.2, scale = 8), 0.65)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apply_hr(define_surv_param("weibull", shape = 1.1, scale = 14), 0.7)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">u_pfs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utility PFS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quality of life in PFS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">u_prog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utility Progressed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quality of life after progression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_drug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drug Cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly drug cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vswitch(strategy, 'standard' = 5000, 'new_drug' = 12000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administration Cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly admin cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vswitch(strategy, 'standard' = 500, 'new_drug' = 800)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_ae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AE Cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly AE cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vswitch(strategy, 'standard' = 200, 'new_drug' = 400)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_prog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Progression Cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly progression cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">destination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qalys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QALYs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quality-adjusted life years in PFS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quality-adjusted life years progressed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drug costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administration costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AE costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Progression costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total_qalys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total QALYs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total quality-adjusted life years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total_cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cost_drug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cost_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin Cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cost_ae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cost_prog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cost_drug,cost_admin,cost_ae,cost_prog</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="112">
+  <si>
+    <t>setting</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>model_type</t>
+  </si>
+  <si>
+    <t>psm</t>
+  </si>
+  <si>
+    <t>cycle_length</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>cycle_length_unit</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>timeframe</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>timeframe_unit</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>days_per_year</t>
+  </si>
+  <si>
+    <t>365.25</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>display_name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>Standard of Care</t>
+  </si>
+  <si>
+    <t>Current standard treatment</t>
+  </si>
+  <si>
+    <t>new_drug</t>
+  </si>
+  <si>
+    <t>New Drug</t>
+  </si>
+  <si>
+    <t>Novel therapeutic agent</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>enabled</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>All Patients</t>
+  </si>
+  <si>
+    <t>Full patient population</t>
+  </si>
+  <si>
+    <t>initial_probability</t>
+  </si>
+  <si>
+    <t>state_group</t>
+  </si>
+  <si>
+    <t>max_state_time</t>
+  </si>
+  <si>
+    <t>share_state_time</t>
+  </si>
+  <si>
+    <t>state_cycle_limit</t>
+  </si>
+  <si>
+    <t>state_cycle_limit_unit</t>
+  </si>
+  <si>
+    <t>progression_free</t>
+  </si>
+  <si>
+    <t>Progression Free</t>
+  </si>
+  <si>
+    <t>No disease progression</t>
+  </si>
+  <si>
+    <t>alive</t>
+  </si>
+  <si>
+    <t>cycles</t>
+  </si>
+  <si>
+    <t>progressed</t>
+  </si>
+  <si>
+    <t>Progressed</t>
+  </si>
+  <si>
+    <t>Disease has progressed</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t>Death</t>
+  </si>
+  <si>
+    <t>endpoint</t>
+  </si>
+  <si>
+    <t>time_unit</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>pfs_dist</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>os_dist</t>
+  </si>
+  <si>
+    <t>strategy</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>PFS Distribution</t>
+  </si>
+  <si>
+    <t>Progression-free survival</t>
+  </si>
+  <si>
+    <t>define_surv_param("weibull", shape = 1.2, scale = 8)</t>
+  </si>
+  <si>
+    <t>OS Distribution</t>
+  </si>
+  <si>
+    <t>Overall survival</t>
+  </si>
+  <si>
+    <t>define_surv_param("weibull", shape = 1.1, scale = 14)</t>
+  </si>
+  <si>
+    <t>apply_hr(define_surv_param("weibull", shape = 1.2, scale = 8), 0.65)</t>
+  </si>
+  <si>
+    <t>apply_hr(define_surv_param("weibull", shape = 1.1, scale = 14), 0.7)</t>
+  </si>
+  <si>
+    <t>u_pfs</t>
+  </si>
+  <si>
+    <t>Utility PFS</t>
+  </si>
+  <si>
+    <t>Quality of life in PFS</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>u_prog</t>
+  </si>
+  <si>
+    <t>Utility Progressed</t>
+  </si>
+  <si>
+    <t>Quality of life after progression</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>c_drug</t>
+  </si>
+  <si>
+    <t>Drug Cost</t>
+  </si>
+  <si>
+    <t>Monthly drug cost</t>
+  </si>
+  <si>
+    <t>vswitch(strategy, 'standard' = 5000, 'new_drug' = 12000)</t>
+  </si>
+  <si>
+    <t>c_admin</t>
+  </si>
+  <si>
+    <t>Administration Cost</t>
+  </si>
+  <si>
+    <t>Monthly admin cost</t>
+  </si>
+  <si>
+    <t>vswitch(strategy, 'standard' = 500, 'new_drug' = 800)</t>
+  </si>
+  <si>
+    <t>c_ae</t>
+  </si>
+  <si>
+    <t>AE Cost</t>
+  </si>
+  <si>
+    <t>Monthly AE cost</t>
+  </si>
+  <si>
+    <t>vswitch(strategy, 'standard' = 200, 'new_drug' = 400)</t>
+  </si>
+  <si>
+    <t>c_prog</t>
+  </si>
+  <si>
+    <t>Progression Cost</t>
+  </si>
+  <si>
+    <t>Monthly progression cost</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>destination</t>
+  </si>
+  <si>
+    <t>qalys</t>
+  </si>
+  <si>
+    <t>QALYs</t>
+  </si>
+  <si>
+    <t>Quality-adjusted life years in PFS</t>
+  </si>
+  <si>
+    <t>Quality-adjusted life years progressed</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Drug costs</t>
+  </si>
+  <si>
+    <t>Administration costs</t>
+  </si>
+  <si>
+    <t>AE costs</t>
+  </si>
+  <si>
+    <t>Progression costs</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>total_qalys</t>
+  </si>
+  <si>
+    <t>Total QALYs</t>
+  </si>
+  <si>
+    <t>Total quality-adjusted life years</t>
+  </si>
+  <si>
+    <t>total_cost</t>
+  </si>
+  <si>
+    <t>Total costs</t>
+  </si>
+  <si>
+    <t>cost_drug</t>
+  </si>
+  <si>
+    <t>cost_admin</t>
+  </si>
+  <si>
+    <t>Admin Cost</t>
+  </si>
+  <si>
+    <t>cost_ae</t>
+  </si>
+  <si>
+    <t>cost_prog</t>
+  </si>
+  <si>
+    <t>cost_drug,cost_admin,cost_ae,cost_prog</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>outcome</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -392,6 +405,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -673,14 +695,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -688,7 +710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -696,7 +718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -704,7 +726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -712,7 +734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -720,7 +742,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -728,7 +750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -738,19 +760,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -761,7 +783,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -772,7 +794,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -785,19 +807,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -814,7 +836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -824,28 +846,28 @@
       <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -874,7 +896,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -884,26 +906,26 @@
       <c r="C2" t="s">
         <v>36</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>37</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -913,26 +935,26 @@
       <c r="C3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>37</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -942,19 +964,19 @@
       <c r="C4" t="s">
         <v>44</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>42</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
@@ -963,19 +985,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -986,7 +1008,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -997,7 +1019,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -1010,19 +1032,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1042,7 +1064,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -1058,9 +1080,8 @@
       <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="F2"/>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -1076,9 +1097,8 @@
       <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="F3"/>
-    </row>
-    <row r="4">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1094,9 +1114,8 @@
       <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="F4"/>
-    </row>
-    <row r="5">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -1112,9 +1131,8 @@
       <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="F5"/>
-    </row>
-    <row r="6">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -1127,10 +1145,8 @@
       <c r="D6" t="s">
         <v>65</v>
       </c>
-      <c r="E6"/>
-      <c r="F6"/>
-    </row>
-    <row r="7">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -1143,10 +1159,8 @@
       <c r="D7" t="s">
         <v>69</v>
       </c>
-      <c r="E7"/>
-      <c r="F7"/>
-    </row>
-    <row r="8">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -1159,10 +1173,8 @@
       <c r="D8" t="s">
         <v>73</v>
       </c>
-      <c r="E8"/>
-      <c r="F8"/>
-    </row>
-    <row r="9">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -1175,10 +1187,8 @@
       <c r="D9" t="s">
         <v>77</v>
       </c>
-      <c r="E9"/>
-      <c r="F9"/>
-    </row>
-    <row r="10">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -1191,10 +1201,8 @@
       <c r="D10" t="s">
         <v>81</v>
       </c>
-      <c r="E10"/>
-      <c r="F10"/>
-    </row>
-    <row r="11">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -1207,24 +1215,24 @@
       <c r="D11" t="s">
         <v>85</v>
       </c>
-      <c r="E11"/>
-      <c r="F11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1235,16 +1243,19 @@
         <v>16</v>
       </c>
       <c r="D1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" t="s">
         <v>86</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>87</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -1255,14 +1266,16 @@
         <v>90</v>
       </c>
       <c r="D2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" t="s">
         <v>34</v>
       </c>
-      <c r="E2"/>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -1273,14 +1286,16 @@
         <v>91</v>
       </c>
       <c r="D3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" t="s">
         <v>39</v>
       </c>
-      <c r="E3"/>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -1290,13 +1305,14 @@
       <c r="C4" t="s">
         <v>94</v>
       </c>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4" t="s">
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -1306,13 +1322,14 @@
       <c r="C5" t="s">
         <v>95</v>
       </c>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5" t="s">
+      <c r="D5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -1322,13 +1339,14 @@
       <c r="C6" t="s">
         <v>96</v>
       </c>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6" t="s">
+      <c r="D6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -1339,28 +1357,30 @@
         <v>97</v>
       </c>
       <c r="D7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" t="s">
         <v>39</v>
       </c>
-      <c r="E7"/>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>82</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1374,7 +1394,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -1388,7 +1408,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -1404,6 +1424,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{2d40fa44-05dd-4301-91b0-81b668a97c30}" enabled="1" method="Standard" siteId="{4a33c544-865e-44a4-836f-bc51800f6c5e}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/inst/models/example_psm/model.xlsx
+++ b/inst/models/example_psm/model.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
   <si>
     <t xml:space="preserve">setting</t>
   </si>
@@ -505,6 +505,9 @@
   </si>
   <si>
     <t xml:space="preserve">cost_drug,cost_admin,cost_ae,cost_prog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.035</t>
   </si>
 </sst>
 </file>
@@ -897,7 +900,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9">
@@ -905,7 +908,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/inst/models/example_psm/model.xlsx
+++ b/inst/models/example_psm/model.xlsx
@@ -3,17 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="settings" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="strategies" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="groups" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="states" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="transitions" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="variables" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="values" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summaries" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="settings" sheetId="9" state="visible" r:id="rId8"/>
+    <sheet name="strategies" sheetId="2" state="visible" r:id="rId1"/>
+    <sheet name="groups" sheetId="3" state="visible" r:id="rId2"/>
+    <sheet name="states" sheetId="4" state="visible" r:id="rId3"/>
+    <sheet name="transitions" sheetId="5" state="visible" r:id="rId4"/>
+    <sheet name="variables" sheetId="6" state="visible" r:id="rId5"/>
+    <sheet name="values" sheetId="7" state="visible" r:id="rId6"/>
+    <sheet name="summaries" sheetId="8" state="visible" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
@@ -841,74 +841,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>162</v>
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -935,38 +907,45 @@
       <c r="C1" t="s">
         <v>19</v>
       </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -994,44 +973,109 @@
         <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E2" t="n">
         <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1050,118 +1094,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1180,35 +1141,600 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
         <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
         <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1236,591 +1762,136 @@
         <v>19</v>
       </c>
       <c r="D1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2"/>
+        <v>142</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
       <c r="F2"/>
+      <c r="G2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3"/>
+        <v>142</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
       <c r="F3"/>
+      <c r="G3" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
+      <c r="G4" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
+      <c r="G5" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
+      <c r="G6" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7"/>
+        <v>146</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
       <c r="F7"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8"/>
-      <c r="F8"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9"/>
-      <c r="F9"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10"/>
-      <c r="F10"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11"/>
-      <c r="F11"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
+      <c r="G7" t="s">
         <v>101</v>
-      </c>
-      <c r="B12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E12"/>
-      <c r="F12"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" t="s">
-        <v>110</v>
-      </c>
-      <c r="E15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" t="s">
-        <v>114</v>
-      </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>111</v>
-      </c>
-      <c r="B18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" t="s">
-        <v>120</v>
-      </c>
-      <c r="E19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>117</v>
-      </c>
-      <c r="B20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" t="s">
-        <v>119</v>
-      </c>
-      <c r="D20" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>117</v>
-      </c>
-      <c r="B21" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" t="s">
-        <v>119</v>
-      </c>
-      <c r="D21" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" t="s">
-        <v>124</v>
-      </c>
-      <c r="E22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>125</v>
-      </c>
-      <c r="B23" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" t="s">
-        <v>126</v>
-      </c>
-      <c r="D23" t="s">
-        <v>124</v>
-      </c>
-      <c r="E23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B24" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" t="s">
-        <v>123</v>
-      </c>
-      <c r="D24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>125</v>
-      </c>
-      <c r="B25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" t="s">
-        <v>126</v>
-      </c>
-      <c r="D25" t="s">
-        <v>128</v>
-      </c>
-      <c r="E25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>122</v>
-      </c>
-      <c r="B26" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26" t="s">
-        <v>123</v>
-      </c>
-      <c r="D26" t="s">
-        <v>129</v>
-      </c>
-      <c r="E26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>125</v>
-      </c>
-      <c r="B27" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" t="s">
-        <v>126</v>
-      </c>
-      <c r="D27" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>122</v>
-      </c>
-      <c r="B28" t="s">
-        <v>123</v>
-      </c>
-      <c r="C28" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" t="s">
-        <v>130</v>
-      </c>
-      <c r="E28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" t="s">
-        <v>126</v>
-      </c>
-      <c r="C29" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" t="s">
-        <v>131</v>
-      </c>
-      <c r="E29" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>122</v>
-      </c>
-      <c r="B30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D30" t="s">
-        <v>132</v>
-      </c>
-      <c r="E30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>125</v>
-      </c>
-      <c r="B31" t="s">
-        <v>126</v>
-      </c>
-      <c r="C31" t="s">
-        <v>126</v>
-      </c>
-      <c r="D31" t="s">
-        <v>133</v>
-      </c>
-      <c r="E31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>122</v>
-      </c>
-      <c r="B32" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D32" t="s">
-        <v>134</v>
-      </c>
-      <c r="E32" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>125</v>
-      </c>
-      <c r="B33" t="s">
-        <v>126</v>
-      </c>
-      <c r="C33" t="s">
-        <v>126</v>
-      </c>
-      <c r="D33" t="s">
-        <v>135</v>
-      </c>
-      <c r="E33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1848,136 +1919,35 @@
         <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G1" t="s">
-        <v>56</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" t="s">
         <v>139</v>
-      </c>
-      <c r="B2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2"/>
-      <c r="G2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3"/>
-      <c r="G3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7"/>
-      <c r="G7" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1996,44 +1966,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>154</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" t="s">
-        <v>139</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" t="s">
-        <v>161</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
